--- a/Surface_Prix_SPX_Calls_Fictive.xlsx
+++ b/Surface_Prix_SPX_Calls_Fictive.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6468b3e9d8abaf9d/M2 Quant/S2/Produits structurés/Projet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC66998AD6526AA991D878B422D50A560B4D271" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{852A7F34-F81C-4CF1-A5C8-C8EAC0919683}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +155,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,9 +276,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,14 +452,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +530,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -579,7 +598,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -605,7 +624,7 @@
         <v>13.33</v>
       </c>
       <c r="I3">
-        <v>9.359999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="J3">
         <v>6.77</v>
@@ -629,7 +648,7 @@
         <v>0.24</v>
       </c>
       <c r="Q3">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R3">
         <v>0.75</v>
@@ -644,10 +663,10 @@
         <v>2.52</v>
       </c>
       <c r="V3">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -661,13 +680,13 @@
         <v>126.79</v>
       </c>
       <c r="E4">
-        <v>85.93000000000001</v>
+        <v>85.93</v>
       </c>
       <c r="F4">
         <v>47.37</v>
       </c>
       <c r="G4">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="H4">
         <v>26.16</v>
@@ -709,13 +728,13 @@
         <v>3.21</v>
       </c>
       <c r="U4">
-        <v>-0.55</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="V4">
         <v>-0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -726,7 +745,7 @@
         <v>179.66</v>
       </c>
       <c r="D5">
-        <v>140.45</v>
+        <v>140.44999999999999</v>
       </c>
       <c r="E5">
         <v>102.04</v>
@@ -783,7 +802,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -794,7 +813,7 @@
         <v>191.44</v>
       </c>
       <c r="D6">
-        <v>151.58</v>
+        <v>151.58000000000001</v>
       </c>
       <c r="E6">
         <v>114.72</v>
@@ -851,7 +870,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -919,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -960,7 +979,7 @@
         <v>22.32</v>
       </c>
       <c r="N8">
-        <v>18.74</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="O8">
         <v>13.13</v>
@@ -987,7 +1006,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1032,7 @@
         <v>94.42</v>
       </c>
       <c r="I9">
-        <v>72.01000000000001</v>
+        <v>72.010000000000005</v>
       </c>
       <c r="J9">
         <v>55.84</v>
@@ -1022,7 +1041,7 @@
         <v>43.83</v>
       </c>
       <c r="L9">
-        <v>35.13</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="M9">
         <v>26.35</v>
@@ -1037,7 +1056,7 @@
         <v>12.35</v>
       </c>
       <c r="Q9">
-        <v>8.029999999999999</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="R9">
         <v>9.58</v>
@@ -1055,7 +1074,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1084,13 +1103,13 @@
         <v>81.27</v>
       </c>
       <c r="J10">
-        <v>65.68000000000001</v>
+        <v>65.680000000000007</v>
       </c>
       <c r="K10">
         <v>48.95</v>
       </c>
       <c r="L10">
-        <v>40.87</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="M10">
         <v>30.91</v>
@@ -1099,7 +1118,7 @@
         <v>24.59</v>
       </c>
       <c r="O10">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="P10">
         <v>14.1</v>
@@ -1123,12 +1142,12 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>273.66</v>
+        <v>273.66000000000003</v>
       </c>
       <c r="C11">
         <v>242.51</v>
@@ -1161,7 +1180,7 @@
         <v>45.04</v>
       </c>
       <c r="M11">
-        <v>35.48</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="N11">
         <v>25.39</v>
@@ -1185,13 +1204,13 @@
         <v>5.38</v>
       </c>
       <c r="U11">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="V11">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1248,7 @@
         <v>50.94</v>
       </c>
       <c r="M12">
-        <v>39.23</v>
+        <v>39.229999999999997</v>
       </c>
       <c r="N12">
         <v>31.2</v>
@@ -1238,7 +1257,7 @@
         <v>21.49</v>
       </c>
       <c r="P12">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Q12">
         <v>15.73</v>
@@ -1259,7 +1278,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1307,7 @@
         <v>115.26</v>
       </c>
       <c r="J13">
-        <v>88.06999999999999</v>
+        <v>88.07</v>
       </c>
       <c r="K13">
         <v>67.59</v>
@@ -1315,7 +1334,7 @@
         <v>12.66</v>
       </c>
       <c r="S13">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="T13">
         <v>5.25</v>
@@ -1327,7 +1346,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1354,7 @@
         <v>294.06</v>
       </c>
       <c r="C14">
-        <v>273.22</v>
+        <v>273.22000000000003</v>
       </c>
       <c r="D14">
         <v>257.32</v>
@@ -1374,10 +1393,10 @@
         <v>25.91</v>
       </c>
       <c r="P14">
-        <v>20.26</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="Q14">
-        <v>17.56</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="R14">
         <v>14.74</v>
@@ -1395,7 +1414,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1446,7 @@
         <v>103.13</v>
       </c>
       <c r="K15">
-        <v>81.04000000000001</v>
+        <v>81.040000000000006</v>
       </c>
       <c r="L15">
         <v>61.89</v>
@@ -1463,7 +1482,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1477,10 +1496,10 @@
         <v>285.98</v>
       </c>
       <c r="E16">
-        <v>286.78</v>
+        <v>286.77999999999997</v>
       </c>
       <c r="F16">
-        <v>305.1</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="G16">
         <v>238.25</v>
@@ -1516,7 +1535,7 @@
         <v>20.63</v>
       </c>
       <c r="R16">
-        <v>16.42</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="S16">
         <v>10.79</v>
@@ -1531,7 +1550,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1590,7 +1609,7 @@
         <v>13.29</v>
       </c>
       <c r="T17">
-        <v>9.779999999999999</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="U17">
         <v>6.88</v>
@@ -1599,7 +1618,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>311.69</v>
       </c>
       <c r="E18">
-        <v>321.9</v>
+        <v>321.89999999999998</v>
       </c>
       <c r="F18">
         <v>351.56</v>
@@ -1658,16 +1677,16 @@
         <v>14.6</v>
       </c>
       <c r="T18">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="U18">
-        <v>8.369999999999999</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="V18">
         <v>6.07</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1696,13 +1715,13 @@
         <v>173</v>
       </c>
       <c r="J19">
-        <v>137.05</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="K19">
         <v>106.48</v>
       </c>
       <c r="L19">
-        <v>81.79000000000001</v>
+        <v>81.790000000000006</v>
       </c>
       <c r="M19">
         <v>64.69</v>
@@ -1711,7 +1730,7 @@
         <v>49.38</v>
       </c>
       <c r="O19">
-        <v>40.87</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="P19">
         <v>29.54</v>
@@ -1720,7 +1739,7 @@
         <v>23.19</v>
       </c>
       <c r="R19">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="S19">
         <v>14.34</v>
@@ -1729,13 +1748,13 @@
         <v>10.43</v>
       </c>
       <c r="U19">
-        <v>9.210000000000001</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="V19">
         <v>5.36</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1770,7 +1789,7 @@
         <v>113.13</v>
       </c>
       <c r="L20">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="M20">
         <v>69.27</v>
@@ -1797,13 +1816,13 @@
         <v>13.64</v>
       </c>
       <c r="U20">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="V20">
         <v>5.71</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1832,13 +1851,13 @@
         <v>193.98</v>
       </c>
       <c r="J21">
-        <v>152.58</v>
+        <v>152.58000000000001</v>
       </c>
       <c r="K21">
         <v>119.23</v>
       </c>
       <c r="L21">
-        <v>94.31999999999999</v>
+        <v>94.32</v>
       </c>
       <c r="M21">
         <v>70.48</v>
@@ -1868,10 +1887,10 @@
         <v>8.94</v>
       </c>
       <c r="V21">
-        <v>8.039999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1900,7 +1919,7 @@
         <v>204.53</v>
       </c>
       <c r="J22">
-        <v>157.95</v>
+        <v>157.94999999999999</v>
       </c>
       <c r="K22">
         <v>122.59</v>
